--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Proc-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Proc-Procr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Procr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Procr</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H2">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I2">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.064502333333333</v>
+        <v>7.492418666666667</v>
       </c>
       <c r="N2">
-        <v>21.193507</v>
+        <v>22.477256</v>
       </c>
       <c r="O2">
-        <v>0.2476561179404803</v>
+        <v>0.5201700362954303</v>
       </c>
       <c r="P2">
-        <v>0.3052764709046203</v>
+        <v>0.5280713340433094</v>
       </c>
       <c r="Q2">
-        <v>1.950012224235889</v>
+        <v>2.073811577909333</v>
       </c>
       <c r="R2">
-        <v>17.550110018123</v>
+        <v>18.664304201184</v>
       </c>
       <c r="S2">
-        <v>0.123658196553785</v>
+        <v>0.5201700362954303</v>
       </c>
       <c r="T2">
-        <v>0.1524288523792571</v>
+        <v>0.5280713340433094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H3">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I3">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.150354</v>
       </c>
       <c r="O3">
-        <v>0.1302971417284599</v>
+        <v>0.2580421758281748</v>
       </c>
       <c r="P3">
-        <v>0.1606124327822298</v>
+        <v>0.2619617942615037</v>
       </c>
       <c r="Q3">
-        <v>1.025942832611778</v>
+        <v>1.028761394317333</v>
       </c>
       <c r="R3">
-        <v>9.233485493506</v>
+        <v>9.258852548856</v>
       </c>
       <c r="S3">
-        <v>0.06505920264052019</v>
+        <v>0.2580421758281748</v>
       </c>
       <c r="T3">
-        <v>0.0801960555108911</v>
+        <v>0.2619617942615037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H4">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I4">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.315098</v>
+        <v>1.208492333333333</v>
       </c>
       <c r="N4">
-        <v>3.945294</v>
+        <v>3.625477</v>
       </c>
       <c r="O4">
-        <v>0.04610261983417229</v>
+        <v>0.08390101098987564</v>
       </c>
       <c r="P4">
-        <v>0.05682898205573871</v>
+        <v>0.08517545362002084</v>
       </c>
       <c r="Q4">
-        <v>0.363006062574</v>
+        <v>0.3344961759586667</v>
       </c>
       <c r="R4">
-        <v>3.267054563166</v>
+        <v>3.010465583628</v>
       </c>
       <c r="S4">
-        <v>0.02301968904506784</v>
+        <v>0.08390101098987564</v>
       </c>
       <c r="T4">
-        <v>0.02837551315687246</v>
+        <v>0.08517545362002084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H5">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I5">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.1523735</v>
+        <v>0.6465525</v>
       </c>
       <c r="N5">
-        <v>32.304747</v>
+        <v>1.293105</v>
       </c>
       <c r="O5">
-        <v>0.5662442912163648</v>
+        <v>0.04488767277356737</v>
       </c>
       <c r="P5">
-        <v>0.4653254960411516</v>
+        <v>0.03037967278604086</v>
       </c>
       <c r="Q5">
-        <v>4.4585342730805</v>
+        <v>0.17895797337</v>
       </c>
       <c r="R5">
-        <v>26.751205638483</v>
+        <v>1.07374784022</v>
       </c>
       <c r="S5">
-        <v>0.2827337698861941</v>
+        <v>0.04488767277356737</v>
       </c>
       <c r="T5">
-        <v>0.2323435904974221</v>
+        <v>0.03037967278604086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,371 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H6">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I6">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.276692</v>
+        <v>1.339539333333333</v>
       </c>
       <c r="N6">
-        <v>0.830076</v>
+        <v>4.018618</v>
       </c>
       <c r="O6">
-        <v>0.009699829280522668</v>
+        <v>0.09299910411295177</v>
       </c>
       <c r="P6">
-        <v>0.01195661821625952</v>
+        <v>0.09441174528912497</v>
       </c>
       <c r="Q6">
-        <v>0.07637520052933333</v>
+        <v>0.3707684129946667</v>
       </c>
       <c r="R6">
-        <v>0.687376804764</v>
+        <v>3.336915716952</v>
       </c>
       <c r="S6">
-        <v>0.004843261719855031</v>
+        <v>0.09299910411295177</v>
       </c>
       <c r="T6">
-        <v>0.005970108300979363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.276788</v>
-      </c>
-      <c r="H7">
-        <v>0.830364</v>
-      </c>
-      <c r="I7">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J7">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.064502333333333</v>
-      </c>
-      <c r="N7">
-        <v>21.193507</v>
-      </c>
-      <c r="O7">
-        <v>0.2476561179404803</v>
-      </c>
-      <c r="P7">
-        <v>0.3052764709046203</v>
-      </c>
-      <c r="Q7">
-        <v>1.955369471838666</v>
-      </c>
-      <c r="R7">
-        <v>17.598325246548</v>
-      </c>
-      <c r="S7">
-        <v>0.1239979213866953</v>
-      </c>
-      <c r="T7">
-        <v>0.1528476185253632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.276788</v>
-      </c>
-      <c r="H8">
-        <v>0.830364</v>
-      </c>
-      <c r="I8">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J8">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3.716784666666667</v>
-      </c>
-      <c r="N8">
-        <v>11.150354</v>
-      </c>
-      <c r="O8">
-        <v>0.1302971417284599</v>
-      </c>
-      <c r="P8">
-        <v>0.1606124327822298</v>
-      </c>
-      <c r="Q8">
-        <v>1.028761394317333</v>
-      </c>
-      <c r="R8">
-        <v>9.258852548856</v>
-      </c>
-      <c r="S8">
-        <v>0.06523793908793969</v>
-      </c>
-      <c r="T8">
-        <v>0.08041637727133868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.276788</v>
-      </c>
-      <c r="H9">
-        <v>0.830364</v>
-      </c>
-      <c r="I9">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J9">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.315098</v>
-      </c>
-      <c r="N9">
-        <v>3.945294</v>
-      </c>
-      <c r="O9">
-        <v>0.04610261983417229</v>
-      </c>
-      <c r="P9">
-        <v>0.05682898205573871</v>
-      </c>
-      <c r="Q9">
-        <v>0.364003345224</v>
-      </c>
-      <c r="R9">
-        <v>3.276030107016</v>
-      </c>
-      <c r="S9">
-        <v>0.02308293078910445</v>
-      </c>
-      <c r="T9">
-        <v>0.02845346889886625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.276788</v>
-      </c>
-      <c r="H10">
-        <v>0.830364</v>
-      </c>
-      <c r="I10">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J10">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.1523735</v>
-      </c>
-      <c r="N10">
-        <v>32.304747</v>
-      </c>
-      <c r="O10">
-        <v>0.5662442912163648</v>
-      </c>
-      <c r="P10">
-        <v>0.4653254960411516</v>
-      </c>
-      <c r="Q10">
-        <v>4.470783156317999</v>
-      </c>
-      <c r="R10">
-        <v>26.824698937908</v>
-      </c>
-      <c r="S10">
-        <v>0.2835105213301706</v>
-      </c>
-      <c r="T10">
-        <v>0.2329819055437295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.276788</v>
-      </c>
-      <c r="H11">
-        <v>0.830364</v>
-      </c>
-      <c r="I11">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J11">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.276692</v>
-      </c>
-      <c r="N11">
-        <v>0.830076</v>
-      </c>
-      <c r="O11">
-        <v>0.009699829280522668</v>
-      </c>
-      <c r="P11">
-        <v>0.01195661821625952</v>
-      </c>
-      <c r="Q11">
-        <v>0.07658502529599999</v>
-      </c>
-      <c r="R11">
-        <v>0.689265227664</v>
-      </c>
-      <c r="S11">
-        <v>0.004856567560667636</v>
-      </c>
-      <c r="T11">
-        <v>0.005986509915280155</v>
+        <v>0.09441174528912497</v>
       </c>
     </row>
   </sheetData>
